--- a/RNA_Seq_RawData/MetaData_LP.xlsx
+++ b/RNA_Seq_RawData/MetaData_LP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/mjhemm_colostate_edu/Documents/Peromyscus-Hypoxia-Origins/RNA_Seq_RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{B2B0137F-5764-AB47-B210-E605573480CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA982F46-9FFC-CC4C-97CE-2708282CABA8}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{B2B0137F-5764-AB47-B210-E605573480CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A8F971-C06B-174A-AC2D-2BA4040316F0}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="2300" windowWidth="28400" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData_LP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="405">
   <si>
     <t>Sample_ID_LZ</t>
   </si>
@@ -1008,6 +1008,249 @@
   </si>
   <si>
     <t>RNA201216ZC_LZ214_S58_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>JZ_Seq_Name</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ002_S160_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ003_S161_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ006_S172_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ007_S173_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ009_S109_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ010_S110_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ013_S162_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ015_S163_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ021_S111_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ023_S112_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ025_S164_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ026_S180_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ030_S104_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ032_S181_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ039_S59_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ040_S60_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ041_S94_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ047_S152_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ048_S97_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ049_S98_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ051_S153_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ052_S175_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ060_S105_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ061_S106_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ063_S176_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ064_S154_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ066_S183_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ068_S184_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ070_S155_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ071_S99_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ072_S165_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ074_S166_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ075_S185_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ078_S186_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ081_S107_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ082_S167_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ087_S100_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ088_S101_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ089_S156_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ092_S157_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ093_S102_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ094_S177_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ095_S158_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ096_S159_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ097_S178_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ098_S61_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ099_S62_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ101_S103_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ103_S179_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ104_S63_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ106_S64_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ108_S65_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ109_S66_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ110_S67_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ111_S68_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ112_S95_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ114_S69_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ116_S96_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ117_S70_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ121_S71_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RNA201216ZC_JZ122_S72_L002_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ123_S150_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ124_S151_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ129_S174_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ130_S187_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ131_S188_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ132_S189_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ134_S182_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ135_S108_L003_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ138_S168_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ142_S169_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ146_S170_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ147_S171_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ166_S190_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ167_S191_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ168_S192_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ169_S193_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ211_S194_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t>RNA201216ZC_JZ214_S195_L004_fastp_pman_Halign_liberal.bam</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1567,6 +1810,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1864,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1875,9 +2122,10 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,8 +2180,11 @@
       <c r="R1" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -1988,8 +2239,11 @@
       <c r="R2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -2044,8 +2298,11 @@
       <c r="R3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2100,8 +2357,11 @@
       <c r="R4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -2156,8 +2416,11 @@
       <c r="R5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -2212,8 +2475,11 @@
       <c r="R6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -2268,8 +2534,11 @@
       <c r="R7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -2324,8 +2593,11 @@
       <c r="R8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2380,8 +2652,11 @@
       <c r="R9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -2436,8 +2711,11 @@
       <c r="R10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -2492,8 +2770,11 @@
       <c r="R11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -2548,8 +2829,11 @@
       <c r="R12" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -2604,8 +2888,11 @@
       <c r="R13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -2660,8 +2947,11 @@
       <c r="R14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -2716,8 +3006,11 @@
       <c r="R15" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2772,8 +3065,11 @@
       <c r="R16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2828,8 +3124,11 @@
       <c r="R17" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2884,8 +3183,11 @@
       <c r="R18" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3242,11 @@
       <c r="R19" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2996,8 +3301,11 @@
       <c r="R20" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3052,8 +3360,11 @@
       <c r="R21" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3108,8 +3419,11 @@
       <c r="R22" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3164,8 +3478,11 @@
       <c r="R23" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -3220,8 +3537,11 @@
       <c r="R24" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -3276,8 +3596,11 @@
       <c r="R25" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3332,8 +3655,11 @@
       <c r="R26" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3388,8 +3714,11 @@
       <c r="R27" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -3444,8 +3773,11 @@
       <c r="R28" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -3500,8 +3832,11 @@
       <c r="R29" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -3556,8 +3891,11 @@
       <c r="R30" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3612,8 +3950,11 @@
       <c r="R31" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -3668,8 +4009,11 @@
       <c r="R32" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -3724,8 +4068,11 @@
       <c r="R33" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -3780,8 +4127,11 @@
       <c r="R34" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -3836,8 +4186,11 @@
       <c r="R35" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>180</v>
       </c>
@@ -3892,8 +4245,11 @@
       <c r="R36" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3948,8 +4304,11 @@
       <c r="R37" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -4004,8 +4363,11 @@
       <c r="R38" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -4060,8 +4422,11 @@
       <c r="R39" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -4116,8 +4481,11 @@
       <c r="R40" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -4172,8 +4540,11 @@
       <c r="R41" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -4228,8 +4599,11 @@
       <c r="R42" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4284,8 +4658,11 @@
       <c r="R43" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -4340,8 +4717,11 @@
       <c r="R44" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -4396,8 +4776,11 @@
       <c r="R45" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4449,8 +4832,11 @@
       <c r="R46" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -4505,8 +4891,11 @@
       <c r="R47" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -4561,8 +4950,11 @@
       <c r="R48" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4617,8 +5009,11 @@
       <c r="R49" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -4673,8 +5068,11 @@
       <c r="R50" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -4729,8 +5127,11 @@
       <c r="R51" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -4785,8 +5186,11 @@
       <c r="R52" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -4841,8 +5245,11 @@
       <c r="R53" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -4897,8 +5304,11 @@
       <c r="R54" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -4953,8 +5363,11 @@
       <c r="R55" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -5009,8 +5422,11 @@
       <c r="R56" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -5065,8 +5481,11 @@
       <c r="R57" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -5121,8 +5540,11 @@
       <c r="R58" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -5177,8 +5599,11 @@
       <c r="R59" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5233,8 +5658,11 @@
       <c r="R60" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -5289,8 +5717,11 @@
       <c r="R61" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -5345,8 +5776,11 @@
       <c r="R62" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -5401,8 +5835,11 @@
       <c r="R63" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -5457,8 +5894,11 @@
       <c r="R64" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -5513,8 +5953,11 @@
       <c r="R65" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -5569,8 +6012,11 @@
       <c r="R66" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -5625,8 +6071,11 @@
       <c r="R67" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -5681,8 +6130,11 @@
       <c r="R68" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -5737,8 +6189,11 @@
       <c r="R69" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -5793,8 +6248,11 @@
       <c r="R70" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -5849,8 +6307,11 @@
       <c r="R71" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -5905,8 +6366,11 @@
       <c r="R72" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -5961,8 +6425,11 @@
       <c r="R73" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -6014,8 +6481,11 @@
       <c r="R74" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -6070,8 +6540,11 @@
       <c r="R75" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -6126,8 +6599,11 @@
       <c r="R76" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>214</v>
       </c>
@@ -6182,8 +6658,11 @@
       <c r="R77" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>217</v>
       </c>
@@ -6238,8 +6717,11 @@
       <c r="R78" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -6294,8 +6776,11 @@
       <c r="R79" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>222</v>
       </c>
@@ -6350,8 +6835,11 @@
       <c r="R80" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>224</v>
       </c>
@@ -6397,8 +6885,11 @@
       <c r="Q81" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>226</v>
       </c>
@@ -6443,6 +6934,9 @@
       </c>
       <c r="Q82" t="s">
         <v>244</v>
+      </c>
+      <c r="S82" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6670,16 +7164,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6919AD83-C206-44F5-B38D-BB63CACAB1B3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f157b843-4339-433b-835c-b0a96d15f1ed"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="73815e28-a986-4823-8af6-12cf56f28a35"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f157b843-4339-433b-835c-b0a96d15f1ed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
